--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB1C49-DA6F-400D-A48F-1791DBC5A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6351341-6C19-4A4D-A447-83049E42FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="4350" windowWidth="26955" windowHeight="12705" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
+    <workbookView xWindow="47505" yWindow="7875" windowWidth="26955" windowHeight="12705" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22010,8 +22010,8 @@
   <dimension ref="A1:E2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1724" sqref="A1724:A1762"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954C2D8-88DB-4AE8-87B6-6C57CF74C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291036DD-17A6-4865-A6DD-D3A7FB9FB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="4020" windowWidth="26955" windowHeight="12705" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
+    <workbookView xWindow="42120" yWindow="2715" windowWidth="26955" windowHeight="12705" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="2701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="2702">
   <si>
     <t>Name</t>
   </si>
@@ -8142,6 +8142,9 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrobeloides bodenheimeri </t>
   </si>
 </sst>
 </file>
@@ -22025,8 +22028,8 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22569,226 +22572,406 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2699</v>
+      </c>
       <c r="D52" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2699</v>
+      </c>
       <c r="D53" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2699</v>
+      </c>
       <c r="D54" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2699</v>
+      </c>
       <c r="D55" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2699</v>
+      </c>
       <c r="D56" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2699</v>
+      </c>
       <c r="D57" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2699</v>
+      </c>
       <c r="D58" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2699</v>
+      </c>
       <c r="D59" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2699</v>
+      </c>
       <c r="D60" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2699</v>
+      </c>
       <c r="D61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2699</v>
+      </c>
       <c r="D62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2699</v>
+      </c>
       <c r="D63" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2699</v>
+      </c>
       <c r="D64" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2699</v>
+      </c>
       <c r="D65" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2699</v>
+      </c>
       <c r="D66" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2699</v>
+      </c>
       <c r="D67" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2699</v>
+      </c>
       <c r="D68" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2699</v>
+      </c>
       <c r="D69" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2699</v>
+      </c>
       <c r="D70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2699</v>
+      </c>
       <c r="D71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2699</v>
+      </c>
       <c r="D72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2699</v>
+      </c>
       <c r="D73" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2699</v>
+      </c>
       <c r="D74" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2699</v>
+      </c>
       <c r="D75" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2699</v>
+      </c>
       <c r="D76" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2699</v>
+      </c>
       <c r="D77" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2699</v>
+      </c>
       <c r="D78" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2699</v>
+      </c>
       <c r="D79" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2699</v>
+      </c>
       <c r="D80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2699</v>
+      </c>
       <c r="D81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>236</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291036DD-17A6-4865-A6DD-D3A7FB9FB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFEA25-D858-4C52-8349-F3EA4DB8E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42120" yWindow="2715" windowWidth="26955" windowHeight="12705" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
+    <workbookView xWindow="41595" yWindow="5235" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="2702">
   <si>
     <t>Name</t>
   </si>
@@ -22028,8 +22028,8 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53:C81"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22902,156 +22902,324 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2700</v>
+      </c>
       <c r="D82" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2700</v>
+      </c>
       <c r="D83" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2700</v>
+      </c>
       <c r="D84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2700</v>
+      </c>
       <c r="D85" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2700</v>
+      </c>
       <c r="D86" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2700</v>
+      </c>
       <c r="D87" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2700</v>
+      </c>
       <c r="D88" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2700</v>
+      </c>
       <c r="D89" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2700</v>
+      </c>
       <c r="D90" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2700</v>
+      </c>
       <c r="D91" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2700</v>
+      </c>
       <c r="D92" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2700</v>
+      </c>
       <c r="D93" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2700</v>
+      </c>
       <c r="D94" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2700</v>
+      </c>
       <c r="D95" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2700</v>
+      </c>
       <c r="D96" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2700</v>
+      </c>
       <c r="D97" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2700</v>
+      </c>
       <c r="D98" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2700</v>
+      </c>
       <c r="D99" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2700</v>
+      </c>
       <c r="D100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2700</v>
+      </c>
       <c r="D101" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2700</v>
+      </c>
       <c r="D102" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2700</v>
+      </c>
       <c r="D103" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2700</v>
+      </c>
       <c r="D104" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2700</v>
+      </c>
       <c r="D105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2700</v>
+      </c>
       <c r="D106" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2700</v>
+      </c>
       <c r="D107" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2700</v>
+      </c>
       <c r="D108" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2700</v>
+      </c>
       <c r="D109" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>252</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFEA25-D858-4C52-8349-F3EA4DB8E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD4C04-5CE3-451D-AAB0-8EF4FF1F9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41595" yWindow="5235" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
+    <workbookView xWindow="42555" yWindow="6660" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="2703">
   <si>
     <t>Name</t>
   </si>
@@ -8145,6 +8145,9 @@
   </si>
   <si>
     <t xml:space="preserve">Acrobeloides bodenheimeri </t>
+  </si>
+  <si>
+    <t>Acromoldavicus mojavicus</t>
   </si>
 </sst>
 </file>
@@ -22028,14 +22031,15 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="86.75" customWidth="1"/>
     <col min="5" max="5" width="96" customWidth="1"/>
   </cols>
@@ -23210,96 +23214,180 @@
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2699</v>
+      </c>
       <c r="D110" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2699</v>
+      </c>
       <c r="D111" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2699</v>
+      </c>
       <c r="D112" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2699</v>
+      </c>
       <c r="D113" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2699</v>
+      </c>
       <c r="D114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2699</v>
+      </c>
       <c r="D115" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2699</v>
+      </c>
       <c r="D116" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2699</v>
+      </c>
       <c r="D117" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2699</v>
+      </c>
       <c r="D118" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2699</v>
+      </c>
       <c r="D119" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2699</v>
+      </c>
       <c r="D120" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2699</v>
+      </c>
       <c r="D121" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2699</v>
+      </c>
       <c r="D122" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2699</v>
+      </c>
       <c r="D123" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>268</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD4C04-5CE3-451D-AAB0-8EF4FF1F9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7A028-20CD-4F40-920D-BB124EFCE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42555" yWindow="6660" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="2703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="2703">
   <si>
     <t>Name</t>
   </si>
@@ -22031,8 +22031,8 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111:C123"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125:C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23368,106 +23368,208 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2700</v>
+      </c>
       <c r="D124" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2700</v>
+      </c>
       <c r="D125" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2700</v>
+      </c>
       <c r="D126" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2700</v>
+      </c>
       <c r="D127" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2700</v>
+      </c>
       <c r="D128" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2700</v>
+      </c>
       <c r="D129" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2700</v>
+      </c>
       <c r="D130" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2700</v>
+      </c>
       <c r="D131" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2700</v>
+      </c>
       <c r="D132" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2700</v>
+      </c>
       <c r="D133" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2700</v>
+      </c>
       <c r="D134" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2700</v>
+      </c>
       <c r="D135" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2700</v>
+      </c>
       <c r="D136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2700</v>
+      </c>
       <c r="D137" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2700</v>
+      </c>
       <c r="D138" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2700</v>
+      </c>
       <c r="D139" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2700</v>
+      </c>
       <c r="D140" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>284</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7A028-20CD-4F40-920D-BB124EFCE5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1A6CC-4A03-461E-A1DA-288426B7E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42555" yWindow="6660" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
+    <workbookView xWindow="42210" yWindow="3015" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="2703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="2704">
   <si>
     <t>Name</t>
   </si>
@@ -8148,6 +8148,9 @@
   </si>
   <si>
     <t>Acromoldavicus mojavicus</t>
+  </si>
+  <si>
+    <t>Actinca irmae</t>
   </si>
 </sst>
 </file>
@@ -22031,8 +22034,8 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125:C140"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142:C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23555,181 +23558,355 @@
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2699</v>
+      </c>
       <c r="D141" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2699</v>
+      </c>
       <c r="D142" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2699</v>
+      </c>
       <c r="D143" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2699</v>
+      </c>
       <c r="D144" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2699</v>
+      </c>
       <c r="D145" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2699</v>
+      </c>
       <c r="D146" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2699</v>
+      </c>
       <c r="D147" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2699</v>
+      </c>
       <c r="D148" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2699</v>
+      </c>
       <c r="D149" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2699</v>
+      </c>
       <c r="D150" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2699</v>
+      </c>
       <c r="D151" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2699</v>
+      </c>
       <c r="D152" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2699</v>
+      </c>
       <c r="D153" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2699</v>
+      </c>
       <c r="D154" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2699</v>
+      </c>
       <c r="D155" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2699</v>
+      </c>
       <c r="D156" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2699</v>
+      </c>
       <c r="D157" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2699</v>
+      </c>
       <c r="D158" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2699</v>
+      </c>
       <c r="D159" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2699</v>
+      </c>
       <c r="D160" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2699</v>
+      </c>
       <c r="D161" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2699</v>
+      </c>
       <c r="D162" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2699</v>
+      </c>
       <c r="D163" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2699</v>
+      </c>
       <c r="D164" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2699</v>
+      </c>
       <c r="D165" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2699</v>
+      </c>
       <c r="D166" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2699</v>
+      </c>
       <c r="D167" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2699</v>
+      </c>
       <c r="D168" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2699</v>
+      </c>
       <c r="D169" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>316</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1A6CC-4A03-461E-A1DA-288426B7E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D049D-2674-472A-A973-33ADFDC0CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42210" yWindow="3015" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="2705">
   <si>
     <t>Name</t>
   </si>
@@ -8151,6 +8151,9 @@
   </si>
   <si>
     <t>Actinca irmae</t>
+  </si>
+  <si>
+    <t>Anatonchus tridentatus</t>
   </si>
 </sst>
 </file>
@@ -22034,15 +22037,15 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142:C169"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B271" sqref="B271:C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="86.75" customWidth="1"/>
     <col min="5" max="5" width="96" customWidth="1"/>
   </cols>
@@ -23877,196 +23880,382 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2700</v>
+      </c>
       <c r="D170" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2700</v>
+      </c>
       <c r="D171" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2700</v>
+      </c>
       <c r="D172" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2700</v>
+      </c>
       <c r="D173" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2700</v>
+      </c>
       <c r="D174" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2700</v>
+      </c>
       <c r="D175" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2700</v>
+      </c>
       <c r="D176" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2700</v>
+      </c>
       <c r="D177" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2700</v>
+      </c>
       <c r="D178" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2700</v>
+      </c>
       <c r="D179" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2700</v>
+      </c>
       <c r="D180" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2700</v>
+      </c>
       <c r="D181" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2700</v>
+      </c>
       <c r="D182" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2700</v>
+      </c>
       <c r="D183" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2700</v>
+      </c>
       <c r="D184" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2700</v>
+      </c>
       <c r="D185" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2700</v>
+      </c>
       <c r="D186" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2700</v>
+      </c>
       <c r="D187" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2700</v>
+      </c>
       <c r="D188" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2700</v>
+      </c>
       <c r="D189" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2700</v>
+      </c>
       <c r="D190" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2700</v>
+      </c>
       <c r="D191" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2700</v>
+      </c>
       <c r="D192" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2700</v>
+      </c>
       <c r="D193" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2700</v>
+      </c>
       <c r="D194" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2700</v>
+      </c>
       <c r="D195" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2700</v>
+      </c>
       <c r="D196" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2700</v>
+      </c>
       <c r="D197" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2700</v>
+      </c>
       <c r="D198" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2700</v>
+      </c>
       <c r="D199" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2700</v>
+      </c>
       <c r="D200" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>348</v>
       </c>
@@ -24311,242 +24500,440 @@
         <v>396</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2699</v>
+      </c>
       <c r="D270" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2699</v>
+      </c>
       <c r="D271" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2699</v>
+      </c>
       <c r="D272" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2699</v>
+      </c>
       <c r="D273" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2699</v>
+      </c>
       <c r="D274" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2699</v>
+      </c>
       <c r="D275" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2699</v>
+      </c>
       <c r="D276" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2699</v>
+      </c>
       <c r="D277" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2699</v>
+      </c>
       <c r="D278" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2699</v>
+      </c>
       <c r="D279" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2699</v>
+      </c>
       <c r="D280" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2699</v>
+      </c>
       <c r="D281" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2699</v>
+      </c>
       <c r="D282" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2699</v>
+      </c>
       <c r="D283" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2699</v>
+      </c>
       <c r="D284" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2699</v>
+      </c>
       <c r="D285" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2699</v>
+      </c>
       <c r="D286" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2699</v>
+      </c>
       <c r="D287" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2699</v>
+      </c>
       <c r="D288" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2699</v>
+      </c>
       <c r="D289" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2699</v>
+      </c>
       <c r="D290" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2699</v>
+      </c>
       <c r="D291" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2699</v>
+      </c>
       <c r="D292" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2699</v>
+      </c>
       <c r="D293" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2699</v>
+      </c>
       <c r="D294" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2699</v>
+      </c>
       <c r="D295" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2699</v>
+      </c>
       <c r="D296" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2699</v>
+      </c>
       <c r="D297" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2699</v>
+      </c>
       <c r="D298" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2699</v>
+      </c>
       <c r="D299" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2699</v>
+      </c>
       <c r="D300" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2699</v>
+      </c>
       <c r="D301" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2699</v>
+      </c>
       <c r="D302" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
         <v>444</v>
       </c>

--- a/Taxonomy/VCE2/VCE_Metadata.xlsx
+++ b/Taxonomy/VCE2/VCE_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nemalogic_Git_Hub\nemalogic\nemalogic.github.io\Taxonomy\VCE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D049D-2674-472A-A973-33ADFDC0CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0A6E7-3227-4AAB-9095-C525A70F870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42210" yWindow="3015" windowWidth="19740" windowHeight="11670" activeTab="2" xr2:uid="{906B4D5B-6763-426F-B137-C97CCF4EFE1F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="2705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="2706">
   <si>
     <t>Name</t>
   </si>
@@ -8154,6 +8154,9 @@
   </si>
   <si>
     <t>Anatonchus tridentatus</t>
+  </si>
+  <si>
+    <t>Aphanolaimus</t>
   </si>
 </sst>
 </file>
@@ -22037,8 +22040,8 @@
   <dimension ref="A1:F2549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B271" sqref="B271:C302"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B330" sqref="B330:C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24929,331 +24932,643 @@
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2700</v>
+      </c>
       <c r="D303" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2700</v>
+      </c>
       <c r="D304" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2700</v>
+      </c>
       <c r="D305" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2700</v>
+      </c>
       <c r="D306" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2700</v>
+      </c>
       <c r="D307" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2700</v>
+      </c>
       <c r="D308" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2700</v>
+      </c>
       <c r="D309" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2700</v>
+      </c>
       <c r="D310" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2700</v>
+      </c>
       <c r="D311" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2700</v>
+      </c>
       <c r="D312" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2700</v>
+      </c>
       <c r="D313" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2700</v>
+      </c>
       <c r="D314" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2700</v>
+      </c>
       <c r="D315" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2700</v>
+      </c>
       <c r="D316" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2700</v>
+      </c>
       <c r="D317" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2700</v>
+      </c>
       <c r="D318" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2700</v>
+      </c>
       <c r="D319" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2700</v>
+      </c>
       <c r="D320" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2700</v>
+      </c>
       <c r="D321" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2700</v>
+      </c>
       <c r="D322" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2700</v>
+      </c>
       <c r="D323" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2700</v>
+      </c>
       <c r="D324" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2700</v>
+      </c>
       <c r="D325" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2700</v>
+      </c>
       <c r="D326" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2700</v>
+      </c>
       <c r="D327" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2700</v>
+      </c>
       <c r="D328" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2699</v>
+      </c>
       <c r="D329" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2699</v>
+      </c>
       <c r="D330" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2699</v>
+      </c>
       <c r="D331" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2699</v>
+      </c>
       <c r="D332" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2699</v>
+      </c>
       <c r="D333" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2699</v>
+      </c>
       <c r="D334" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2699</v>
+      </c>
       <c r="D335" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2699</v>
+      </c>
       <c r="D336" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2699</v>
+      </c>
       <c r="D337" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2699</v>
+      </c>
       <c r="D338" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2699</v>
+      </c>
       <c r="D339" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2699</v>
+      </c>
       <c r="D340" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2699</v>
+      </c>
       <c r="D341" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2699</v>
+      </c>
       <c r="D342" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2699</v>
+      </c>
       <c r="D343" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2699</v>
+      </c>
       <c r="D344" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2699</v>
+      </c>
       <c r="D345" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2699</v>
+      </c>
       <c r="D346" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2699</v>
+      </c>
       <c r="D347" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2699</v>
+      </c>
       <c r="D348" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2699</v>
+      </c>
       <c r="D349" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2699</v>
+      </c>
       <c r="D350" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2699</v>
+      </c>
       <c r="D351" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2699</v>
+      </c>
       <c r="D352" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2699</v>
+      </c>
       <c r="D353" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2699</v>
+      </c>
       <c r="D354" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
         <v>508</v>
       </c>
